--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2086.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2086.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.462289870466004</v>
+        <v>2.477963924407959</v>
       </c>
       <c r="B1">
-        <v>3.678530855432513</v>
+        <v>3.239269256591797</v>
       </c>
       <c r="C1">
-        <v>3.299800136795057</v>
+        <v>2.845316886901855</v>
       </c>
       <c r="D1">
-        <v>3.629728273764121</v>
+        <v>3.09270191192627</v>
       </c>
       <c r="E1">
-        <v>1.500084199841051</v>
+        <v>2.373469352722168</v>
       </c>
     </row>
   </sheetData>
